--- a/hot-deploy/partner/document/02 需求分析/20140911需求分析.xlsx
+++ b/hot-deploy/partner/document/02 需求分析/20140911需求分析.xlsx
@@ -8,13 +8,51 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="出货情况表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+原来的报该值为固定值
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -49,10 +87,6 @@
   </si>
   <si>
     <t>是否已升级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +238,85 @@
     <t>附件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>修复时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>综合出货欠数表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-51W</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周计划结存板数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周实际出货总板数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周进货总板数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周改板总板数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际库存条码板数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周计划出仓数(套)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周欠货情况</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结余(套)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备货数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备货余欠情况(套)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改库存余额表，增加物料类别展现和过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按要求实施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +359,52 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +423,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,11 +465,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -335,35 +523,41 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="183">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
+  <dxfs count="192">
     <dxf>
       <font>
         <condense val="0"/>
@@ -412,27 +606,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -479,48 +652,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -544,27 +675,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -611,48 +721,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -676,27 +744,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -720,6 +767,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -764,27 +853,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -831,6 +899,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -875,48 +985,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -963,6 +1031,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1007,27 +1117,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1051,48 +1140,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1116,6 +1163,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1162,48 +1251,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1227,6 +1274,69 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1273,48 +1383,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1338,6 +1406,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1361,6 +1471,48 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1384,48 +1536,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1449,27 +1559,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -1552,6 +1641,199 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
       </font>
     </dxf>
     <dxf>
@@ -1695,6 +1977,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="276225"/>
+          <a:ext cx="1000125" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查询</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4676775" y="276225"/>
+          <a:ext cx="904875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>导出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2022,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -2031,10 +2428,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -2045,28 +2442,28 @@
         <v>41888</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="8">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K2" s="9">
         <v>41898</v>
@@ -2081,30 +2478,32 @@
         <v>41888</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K3" s="9">
+        <v>41898</v>
+      </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -2115,28 +2514,28 @@
         <v>41888</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="8">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K4" s="9">
         <v>41898</v>
@@ -2151,30 +2550,32 @@
         <v>41888</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="9">
+        <v>41898</v>
+      </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -2185,30 +2586,32 @@
         <v>41888</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K6" s="9">
+        <v>41898</v>
+      </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -2219,30 +2622,32 @@
         <v>41888</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K7" s="9">
+        <v>41903</v>
+      </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="85.5" x14ac:dyDescent="0.15">
@@ -2253,33 +2658,35 @@
         <v>41888</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I8" s="8">
         <v>500</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K8" s="9">
+        <v>41903</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="156.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2287,130 +2694,136 @@
         <v>41888</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K9" s="9">
         <v>41903</v>
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>41888</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="8">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K10" s="9">
+        <v>41903</v>
+      </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>41888</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="K11" s="9">
+        <v>41917</v>
+      </c>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>41888</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I12" s="8">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K12" s="9">
         <v>41917</v>
@@ -2419,32 +2832,30 @@
     </row>
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>41888</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1000</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="9">
         <v>41917</v>
@@ -2452,159 +2863,224 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41888</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="K14" s="9">
+        <v>41917</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
         <v>41888</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
-    <cfRule type="cellIs" dxfId="182" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="205" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="206" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="207" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G14">
-    <cfRule type="cellIs" dxfId="179" priority="181" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G1:G2 G7:G15">
+    <cfRule type="cellIs" dxfId="188" priority="208" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="209" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="210" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="cellIs" dxfId="176" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="202" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="203" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="204" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G9">
-    <cfRule type="cellIs" dxfId="173" priority="172" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="182" priority="199" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="200" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="201" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I10">
-    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="cellIs" dxfId="179" priority="196" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="170" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="197" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="198" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="167" priority="163" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="190" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="164" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="191" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="192" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="164" priority="166" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H3:I3">
+    <cfRule type="cellIs" dxfId="173" priority="187" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="188" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="189" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="170" priority="181" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="183" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="cellIs" dxfId="167" priority="178" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="179" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="180" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="164" priority="172" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="173" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="174" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="cellIs" dxfId="161" priority="169" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="170" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="171" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="158" priority="157" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="159" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="155" stopIfTrue="1" operator="equal">
+      <formula>"否"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="156" stopIfTrue="1" operator="equal">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="equal">
       <formula>"检查中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="153" stopIfTrue="1" operator="equal">
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I3">
-    <cfRule type="cellIs" dxfId="161" priority="160" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="161" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="162" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="155" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="156" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="155" priority="157" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
-    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="152" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="153" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="149" priority="148" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2615,18 +3091,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="146" priority="145" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="145" priority="146" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="144" priority="147" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I5">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
     <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2637,18 +3113,18 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="H7:I7">
     <cfRule type="cellIs" dxfId="140" priority="139" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="139" priority="140" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="141" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="cellIs" dxfId="137" priority="136" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2659,7 +3135,7 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="cellIs" dxfId="134" priority="133" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2670,18 +3146,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
+  <conditionalFormatting sqref="G8:G9">
     <cfRule type="cellIs" dxfId="131" priority="130" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="130" priority="131" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="129" priority="132" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9">
     <cfRule type="cellIs" dxfId="128" priority="127" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2692,18 +3168,18 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H8:I8 I9">
     <cfRule type="cellIs" dxfId="125" priority="124" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="124" priority="125" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="123" priority="126" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="122" priority="121" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2714,18 +3190,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H10">
     <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="119" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="117" priority="120" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2736,18 +3212,18 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
+  <conditionalFormatting sqref="G11">
     <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="112" priority="113" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="111" priority="114" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
     <cfRule type="cellIs" dxfId="110" priority="109" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2758,7 +3234,7 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G11">
     <cfRule type="cellIs" dxfId="107" priority="106" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2769,18 +3245,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H11">
     <cfRule type="cellIs" dxfId="104" priority="103" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="103" priority="104" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="105" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="cellIs" dxfId="101" priority="100" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2791,7 +3267,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
+  <conditionalFormatting sqref="I12">
     <cfRule type="cellIs" dxfId="98" priority="97" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2802,7 +3278,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" dxfId="95" priority="94" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2813,51 +3289,51 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="G12">
     <cfRule type="cellIs" dxfId="92" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="89" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="89" priority="88" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="86" priority="85" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="83" priority="82" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2868,18 +3344,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="77" priority="76" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="76" priority="77" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="75" priority="78" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="cellIs" dxfId="74" priority="73" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2890,40 +3366,40 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="71" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"检查中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="65" priority="64" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="64" priority="65" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="63" priority="66" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" dxfId="62" priority="61" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2934,18 +3410,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" dxfId="59" priority="58" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="59" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="60" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="cellIs" dxfId="56" priority="55" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2956,7 +3432,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" dxfId="53" priority="52" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -2967,18 +3443,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="50" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
     <cfRule type="cellIs" dxfId="47" priority="46" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -2989,7 +3465,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="44" priority="43" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3000,18 +3476,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="41" priority="40" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="39" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="cellIs" dxfId="38" priority="37" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -3022,7 +3498,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" dxfId="35" priority="34" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3033,18 +3509,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="equal">
-      <formula>"完成"</formula>
+      <formula>"是"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"检查中"</formula>
+      <formula>"否"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"修改中"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>"不需要"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -3055,7 +3531,7 @@
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G3:G6">
     <cfRule type="cellIs" dxfId="26" priority="25" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3066,29 +3542,29 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="23" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
     <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="21" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3099,7 +3575,7 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3110,18 +3586,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
@@ -3132,18 +3608,18 @@
       <formula>"修改中"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"是"</formula>
+      <formula>"完成"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"否"</formula>
+      <formula>"检查中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"不需要"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
+      <formula>"修改中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
@@ -3155,23 +3631,466 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"未领取,检查中,已分析,完成,不需要修改,挂起"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
       <formula1>"新增需求,需求变更,存在问题"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C15">
       <formula1>"支票系统,富侨仓库系统,钢管厂系统"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H15">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J15">
       <formula1>"是,否,不需要,未能重现"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="A21:M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/hot-deploy/partner/document/02 需求分析/20140911需求分析.xlsx
+++ b/hot-deploy/partner/document/02 需求分析/20140911需求分析.xlsx
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
